--- a/價值標的.xlsx
+++ b/價值標的.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>標的種類(只可填"顧客"、"原料"或"產品")</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>標的代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +53,22 @@
   </si>
   <si>
     <t>小刀測試3</t>
+  </si>
+  <si>
+    <t>標的種類(只可填"顧客"、"原料"、"產品"或"部門")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小刀測試4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -394,46 +407,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
